--- a/test_plan.xlsx
+++ b/test_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>Test Feature</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Repeat test step with test case ID: U1 till step 5
 </t>
     </r>
@@ -124,6 +130,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Repeat test step with test case ID: U1 till step 5
 6. Select valid file type
 7. Select uplaoded file and click
@@ -159,6 +171,9 @@
   </si>
   <si>
     <t>Parameter</t>
+  </si>
+  <si>
+    <t>Extra Testing and Result expect</t>
   </si>
   <si>
     <t>Monitor the progress of the system generating a catalog output</t>
@@ -235,6 +250,16 @@
   <si>
     <t>same as expected 
 result</t>
+  </si>
+  <si>
+    <t>1. Continus do the get request for ~45 seconds and checking the output data.
+The return data for each id, the status should either goes to complete or failed.
+    - If failed, no assets should return
+    - If complete, the assets should show and user would able to
+      check the assets value
+2. After 3 minutes, if the id status still in "ingesting" status,
+the test failed.
+Note: the request might return status timeout?</t>
   </si>
   <si>
     <t>A2</t>
@@ -1146,7 +1171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,6 +1267,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1562,13 +1593,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="50.625" customWidth="1"/>
     <col min="2" max="2" width="7.625" customWidth="1"/>
@@ -1578,6 +1609,7 @@
     <col min="6" max="6" width="50.625" customWidth="1"/>
     <col min="7" max="7" width="22.0083333333333" customWidth="1"/>
     <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="66" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:8">
@@ -1710,7 +1742,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="19"/>
@@ -1719,8 +1751,9 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
-    </row>
-    <row r="9" ht="30.75" spans="1:8">
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" ht="30.75" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1745,104 +1778,113 @@
       <c r="H9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" ht="409" customHeight="1" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" ht="409" customHeight="1" spans="1:9">
       <c r="A10" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" ht="39" customHeight="1" spans="1:8">
+      <c r="I10" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="39" customHeight="1" spans="1:9">
       <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" ht="72" customHeight="1" spans="1:8">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" ht="72" customHeight="1" spans="1:9">
       <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" ht="72" customHeight="1" spans="1:8">
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" ht="72" customHeight="1" spans="1:9">
       <c r="A13" s="26"/>
       <c r="B13" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="G13" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>15</v>
       </c>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="29"/>
@@ -1854,142 +1896,159 @@
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" ht="409" customHeight="1" spans="1:8">
-      <c r="A15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="23" t="s">
+    <row r="15" ht="23" customHeight="1" spans="1:9">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="33"/>
+    </row>
+    <row r="16" ht="409" customHeight="1" spans="1:9">
+      <c r="A16" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="25" t="s">
+      <c r="B16" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" ht="39" customHeight="1" spans="1:8">
-      <c r="A16" s="26"/>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>33</v>
+      <c r="E16" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" ht="72" customHeight="1" spans="1:8">
-      <c r="A17" s="28"/>
+      <c r="I16" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" ht="39" customHeight="1" spans="1:9">
+      <c r="A17" s="26"/>
       <c r="B17" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="G17" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" ht="72" customHeight="1" spans="1:8">
-      <c r="A18" s="26"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" ht="72" customHeight="1" spans="1:9">
+      <c r="A18" s="28"/>
       <c r="B18" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="G18" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" ht="138" customHeight="1" spans="1:8">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" ht="72" customHeight="1" spans="1:9">
+      <c r="A19" s="26"/>
+      <c r="B19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" ht="138" customHeight="1" spans="1:8">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A20:H21"/>
+    <mergeCell ref="A21:H22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" display="https://6306707cdde73c0f845aa718.mockapi.io/input"/>
     <hyperlink ref="D11" r:id="rId1" display="https://6306707cdde73c0f845aa718.mockapi.io/input"/>
     <hyperlink ref="D12" r:id="rId1" display="https://6306707cdde73c0f845aa718.mockapi.io/input"/>
     <hyperlink ref="D13" r:id="rId1" display="https://6306707cdde73c0f845aa718.mockapi.io/input"/>
-    <hyperlink ref="D15" r:id="rId2" display="https://6306707cdde73c0f845aa718.mockapi.io/product" tooltip="https://6306707cdde73c0f845aa718.mockapi.io/product"/>
     <hyperlink ref="D16" r:id="rId2" display="https://6306707cdde73c0f845aa718.mockapi.io/product" tooltip="https://6306707cdde73c0f845aa718.mockapi.io/product"/>
     <hyperlink ref="D17" r:id="rId2" display="https://6306707cdde73c0f845aa718.mockapi.io/product" tooltip="https://6306707cdde73c0f845aa718.mockapi.io/product"/>
     <hyperlink ref="D18" r:id="rId2" display="https://6306707cdde73c0f845aa718.mockapi.io/product" tooltip="https://6306707cdde73c0f845aa718.mockapi.io/product"/>
+    <hyperlink ref="D19" r:id="rId2" display="https://6306707cdde73c0f845aa718.mockapi.io/product" tooltip="https://6306707cdde73c0f845aa718.mockapi.io/product"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
